--- a/mvp/список рецептів.xlsx
+++ b/mvp/список рецептів.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -402,13 +402,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="23.453125" customWidth="1" min="1" max="1"/>
-    <col width="8.1796875" customWidth="1" min="2" max="6"/>
+    <col width="23.44140625" customWidth="1" min="1" max="1"/>
+    <col width="8.21875" customWidth="1" min="2" max="6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">

--- a/mvp/список рецептів.xlsx
+++ b/mvp/список рецептів.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -453,60 +453,82 @@
         <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>6.863</v>
+        <v>6.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1560</v>
+        <v>1416</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6863</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="n">
-        <v>156</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>рецепт олів'є</t>
+          <t>рецепт вареники</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1000</v>
       </c>
       <c r="C3" t="n">
-        <v>33.822</v>
+        <v>35.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2666.5</v>
+        <v>2410</v>
       </c>
       <c r="E3" t="n">
-        <v>3.382200000000001</v>
+        <v>3.5</v>
       </c>
       <c r="F3" t="n">
-        <v>266.65</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>рецепт смажена картопля</t>
+          <t>рецепт олів'є</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1000</v>
       </c>
       <c r="C4" t="n">
-        <v>20.551</v>
+        <v>33.8</v>
       </c>
       <c r="D4" t="n">
-        <v>2650</v>
+        <v>1993</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0551</v>
+        <v>3.4</v>
       </c>
       <c r="F4" t="n">
-        <v>265</v>
+        <v>199.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>рецепт смажена картопля</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2145</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>214.5</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/список рецептів.xlsx
+++ b/mvp/список рецептів.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -453,7 +453,7 @@
         <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D2" t="n">
         <v>1416</v>
@@ -490,44 +490,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>рецепт олів'є</t>
+          <t>рецепт зажарка</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1000</v>
       </c>
       <c r="C4" t="n">
-        <v>33.8</v>
+        <v>35.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1993</v>
+        <v>2410</v>
       </c>
       <c r="E4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="n">
-        <v>199.3</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>рецепт смажена картопля</t>
+          <t>рецепт олів'є</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1000</v>
       </c>
       <c r="C5" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>рецепт смажена картопля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="n">
         <v>20.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2145</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>2.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>214.5</v>
       </c>
     </row>

--- a/mvp/список рецептів.xlsx
+++ b/mvp/список рецептів.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>рецепт борщ</t>
+          <t>борщ</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>рецепт вареники</t>
+          <t>вареники</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>рецепт зажарка</t>
+          <t>зажарка</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>рецепт олів'є</t>
+          <t>олів'є</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -534,7 +534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>рецепт смажена картопля</t>
+          <t>смажена картопля</t>
         </is>
       </c>
       <c r="B6" t="n">

--- a/mvp/список рецептів.xlsx
+++ b/mvp/список рецептів.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -446,111 +446,903 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>рецепт борщ</t>
+          <t>вівсянка молочна каша</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>6.8</v>
+        <v>29.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1416</v>
+        <v>3112</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>141.6</v>
+        <v>311.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>рецепт вареники</t>
+          <t>вафлі в асортименті</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1000</v>
       </c>
       <c r="C3" t="n">
-        <v>35.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>2410</v>
+        <v>2500</v>
       </c>
       <c r="E3" t="n">
-        <v>3.5</v>
+        <v>6.7</v>
       </c>
       <c r="F3" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>рецепт зажарка</t>
+          <t>гречана каша розсипчаста</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1000</v>
       </c>
       <c r="C4" t="n">
-        <v>35.5</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2410</v>
+        <v>3025</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="F4" t="n">
-        <v>241</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>рецепт олів'є</t>
+          <t>гречана молочна каша</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1000</v>
       </c>
       <c r="C5" t="n">
-        <v>33.7</v>
+        <v>25.4</v>
       </c>
       <c r="D5" t="n">
-        <v>1992</v>
+        <v>3112</v>
       </c>
       <c r="E5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2</v>
+        <v>311.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>рецепт смажена картопля</t>
+          <t>заглушка</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>20.6</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>2145</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>засмажка свинина тушкована</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3262</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>326.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>кавовий напиток</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2876</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>287.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>какао</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2876</v>
+      </c>
+      <c r="E9" t="n">
         <v>2.1</v>
       </c>
-      <c r="F6" t="n">
-        <v>214.5</v>
+      <c r="F9" t="n">
+        <v>287.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>канапка з кабачковою ікрою</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>113</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>251.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>канапка з масою з сардин</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>канапка з паштетом</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>45</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>113</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>251.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>канапка з повидлом</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>канапка з шпротами</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>компот з сушки</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>кукурудзяна каша розсипчаста</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>кукурудзяна молочна каша</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>298.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>кускус каша розсипчаста</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1275</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>макарон відварний</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>манна молочна каша</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3037</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>303.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>огірки мариновані цілі</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>огірки свіжі цілі</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3312</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>331.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>перлова каша розсипчаста</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>900</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>печиво в асортименті</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>пшоняна каша розсипчаста</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>пшоняна молочна каша</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2987</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>298.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>рисова каша розсипчаста</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2775</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>рисова молочна каша</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2987</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>298.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>салат з білокачанної капусти</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3462</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>346.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>салат з крекером</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3462</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>346.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>салат з пекінської капусти</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3462</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>346.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>салат яблука з морквою</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3250</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>суп борщ</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>329.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>суп гороховий</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2800</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>суп гречаний</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2974</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>297.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>суп квасолевий</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3261</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>326.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>суп помідоровий</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>329.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>суп розсольник</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3236</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>323.6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>суп уха</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>сухофрукти в асортименті</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>247.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>чай чорний</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2976</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>297.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>яблука цілі</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
